--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/B/20/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/B/20/seed2/result_data_KNN.xlsx
@@ -474,7 +474,7 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>6.376</v>
+        <v>6.127000000000001</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
@@ -628,7 +628,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>6.125999999999999</v>
+        <v>5.504</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -656,7 +656,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>4.588</v>
+        <v>5.401000000000001</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -726,7 +726,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>9.524000000000001</v>
+        <v>9.185</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -754,7 +754,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>8.666</v>
+        <v>8.305</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -782,7 +782,7 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>5.474</v>
+        <v>5.67</v>
       </c>
       <c r="C25" t="n">
         <v>-11.07</v>
@@ -796,7 +796,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>4.5</v>
+        <v>5.701999999999999</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -838,7 +838,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.473999999999999</v>
+        <v>5.664</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -992,7 +992,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.334</v>
+        <v>9.196</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1174,7 +1174,7 @@
         <v>-21.36</v>
       </c>
       <c r="B53" t="n">
-        <v>6.453999999999999</v>
+        <v>6.504</v>
       </c>
       <c r="C53" t="n">
         <v>-12.98</v>
@@ -1230,7 +1230,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.88</v>
+        <v>5.034000000000001</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1258,7 +1258,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>4.604</v>
+        <v>4.704999999999999</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1342,7 +1342,7 @@
         <v>-22.48</v>
       </c>
       <c r="B65" t="n">
-        <v>5.927999999999999</v>
+        <v>6.034000000000001</v>
       </c>
       <c r="C65" t="n">
         <v>-11.86</v>
@@ -1398,7 +1398,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.218</v>
+        <v>5.326</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1538,7 +1538,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>6.488</v>
+        <v>5.577000000000001</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1594,7 +1594,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>4.996</v>
+        <v>5.702</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1706,7 +1706,7 @@
         <v>-21.82</v>
       </c>
       <c r="B91" t="n">
-        <v>6.376</v>
+        <v>5.601000000000001</v>
       </c>
       <c r="C91" t="n">
         <v>-12.06</v>
@@ -1734,7 +1734,7 @@
         <v>-21.49</v>
       </c>
       <c r="B93" t="n">
-        <v>5.434</v>
+        <v>4.973000000000001</v>
       </c>
       <c r="C93" t="n">
         <v>-10.09</v>
@@ -1832,7 +1832,7 @@
         <v>-21.08</v>
       </c>
       <c r="B100" t="n">
-        <v>4.994000000000001</v>
+        <v>5.784</v>
       </c>
       <c r="C100" t="n">
         <v>-13.95</v>
@@ -1874,7 +1874,7 @@
         <v>-21.66</v>
       </c>
       <c r="B103" t="n">
-        <v>5.249999999999999</v>
+        <v>5.267</v>
       </c>
       <c r="C103" t="n">
         <v>-14.32</v>
